--- a/biology/Zoologie/Heteropoda_tetrica/Heteropoda_tetrica.xlsx
+++ b/biology/Zoologie/Heteropoda_tetrica/Heteropoda_tetrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteropoda tetrica est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette espèce est présente en Chine, en Indonésie, au Laos et au Vietnam.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle mesure entre 15 et 20 mm, la femelle entre 25 et 30 mm. Les femelles sont de couleur marron unie, sans motifs, alors que les mâles ont plusieurs dessins noirs sur un corps gris.[réf. nécessaire]
 </t>
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heteropoda tetrica Thorell, 1897[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heteropoda tetrica Thorell, 1897.
 </t>
         </is>
       </c>
